--- a/projects/tRNAseq_lib1/sample_list_sp.xlsx
+++ b/projects/tRNAseq_lib1/sample_list_sp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="246">
   <si>
     <t xml:space="preserve">sample_name_unique</t>
   </si>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">P15_R2.fastq.bz2</t>
   </si>
   <si>
-    <t xml:space="preserve">tissue</t>
+    <t xml:space="preserve">Tumor-tissue</t>
   </si>
   <si>
     <t xml:space="preserve">Tu2</t>
@@ -658,6 +658,9 @@
     <t xml:space="preserve">mouse</t>
   </si>
   <si>
+    <t xml:space="preserve">Liver-tissue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Li2</t>
   </si>
   <si>
@@ -677,6 +680,9 @@
   </si>
   <si>
     <t xml:space="preserve">D505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle-tissue</t>
   </si>
   <si>
     <t xml:space="preserve">Mu2</t>
@@ -870,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E65" colorId="64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K85" activeCellId="0" sqref="K85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E70" colorId="64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K78" activeCellId="0" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4072,7 +4078,7 @@
         <v>211</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>22</v>
@@ -4086,10 +4092,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>1</v>
@@ -4113,13 +4119,13 @@
         <v>211</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>6</v>
@@ -4127,10 +4133,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>1</v>
@@ -4154,13 +4160,13 @@
         <v>211</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>7</v>
@@ -4168,10 +4174,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1</v>
@@ -4195,13 +4201,13 @@
         <v>211</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>8</v>
@@ -4209,22 +4215,22 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>18</v>
@@ -4236,13 +4242,13 @@
         <v>211</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M82" s="0" t="n">
         <v>9</v>
@@ -4250,22 +4256,22 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>18</v>
@@ -4277,13 +4283,13 @@
         <v>211</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M83" s="0" t="n">
         <v>10</v>
@@ -4291,22 +4297,22 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>18</v>
@@ -4318,13 +4324,13 @@
         <v>211</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>11</v>
@@ -4332,22 +4338,22 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>18</v>
@@ -4359,13 +4365,13 @@
         <v>211</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>12</v>
@@ -4373,22 +4379,22 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>35</v>
@@ -4400,13 +4406,13 @@
         <v>20</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>1</v>
@@ -4414,22 +4420,22 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C87" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>35</v>
@@ -4441,13 +4447,13 @@
         <v>20</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>1</v>
@@ -4455,22 +4461,22 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C88" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>35</v>
@@ -4482,13 +4488,13 @@
         <v>20</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>2</v>
@@ -4496,22 +4502,22 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>230</v>
-      </c>
       <c r="C89" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>35</v>
@@ -4523,13 +4529,13 @@
         <v>20</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>2</v>
@@ -4537,22 +4543,22 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C90" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>59</v>
@@ -4564,13 +4570,13 @@
         <v>20</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>3</v>
@@ -4578,22 +4584,22 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C91" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="F91" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>59</v>
@@ -4605,13 +4611,13 @@
         <v>20</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>3</v>
@@ -4619,22 +4625,22 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C92" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>59</v>
@@ -4646,13 +4652,13 @@
         <v>20</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>1</v>
@@ -4660,22 +4666,22 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C93" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>59</v>
@@ -4687,13 +4693,13 @@
         <v>20</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>2</v>
